--- a/Surveys_w_Target.xlsx
+++ b/Surveys_w_Target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_33ca\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu365-my.sharepoint.com/personal/tabera_smu_edu/Documents/7th Semester/Capstone/Capstone B/Analysis/Multicalss_Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="11" documentId="8_{17B2A4DD-93B5-4A88-BBF6-E32D664685D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1A05C7A-38C0-4C57-8E92-CF52447578FC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="25845" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -5778,6 +5778,136 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{194717C0-917D-404D-A7BE-4C6602BDB04F}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="J3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C89342D2-FA54-45F7-A459-356F0E8AC30D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="C3:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="1">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="12">
+        <item x="9"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D2290DB1-64A3-4D78-B15B-178C9B021EE4}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="J13:J26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
@@ -5842,136 +5972,6 @@
     </i>
     <i>
       <x v="13"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{194717C0-917D-404D-A7BE-4C6602BDB04F}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="J3:J9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="6">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C89342D2-FA54-45F7-A459-356F0E8AC30D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="C3:C15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="1">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="12">
-        <item x="9"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="8"/>
-        <item x="10"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
     </i>
     <i t="grand">
       <x/>
@@ -6295,10 +6295,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G3" sqref="G3"/>
-      <selection pane="bottomLeft" activeCell="AR3" sqref="AQ3:AR217"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39267,12 +39267,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39461,15 +39458,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0400CF6F-B248-449C-AABA-C045F31A55BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E454E34-EA01-433B-948B-CFDF9FE78080}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="bab35541-443a-4a89-9c9a-4824892e254a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="9562ae6a-8aad-4746-b7ef-dfdc51982e47"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -39494,18 +39503,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E454E34-EA01-433B-948B-CFDF9FE78080}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0400CF6F-B248-449C-AABA-C045F31A55BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bab35541-443a-4a89-9c9a-4824892e254a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="9562ae6a-8aad-4746-b7ef-dfdc51982e47"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Surveys_w_Target.xlsx
+++ b/Surveys_w_Target.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://smu365-my.sharepoint.com/personal/tabera_smu_edu/Documents/7th Semester/Capstone/Capstone B/Analysis/Multicalss_Classification/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{17B2A4DD-93B5-4A88-BBF6-E32D664685D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1A05C7A-38C0-4C57-8E92-CF52447578FC}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{17B2A4DD-93B5-4A88-BBF6-E32D664685D0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CD162BDB-7333-48FB-9C81-C0587C36403B}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="25845" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8334" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8334" uniqueCount="1166">
   <si>
     <t>StartDate</t>
   </si>
@@ -3536,6 +3536,9 @@
   </si>
   <si>
     <t>Final Target (Combines Porosity and Hair Type)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -6295,10 +6298,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA217"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A189" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G3" sqref="G3"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6322,16 +6325,16 @@
     <col min="18" max="18" width="25" customWidth="1"/>
     <col min="19" max="19" width="45.7109375" customWidth="1"/>
     <col min="20" max="20" width="57" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" customWidth="1"/>
-    <col min="22" max="22" width="28" customWidth="1"/>
+    <col min="21" max="21" width="56.5703125" customWidth="1"/>
+    <col min="22" max="22" width="99.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="58" customWidth="1"/>
     <col min="24" max="24" width="51.42578125" customWidth="1"/>
     <col min="25" max="25" width="101.140625" customWidth="1"/>
     <col min="26" max="26" width="69" customWidth="1"/>
     <col min="27" max="27" width="66.140625" customWidth="1"/>
-    <col min="28" max="28" width="28.85546875" customWidth="1"/>
+    <col min="28" max="28" width="112.42578125" customWidth="1"/>
     <col min="29" max="29" width="33.7109375" customWidth="1"/>
-    <col min="30" max="30" width="77.140625" customWidth="1"/>
+    <col min="30" max="30" width="78.140625" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="71.5703125" customWidth="1"/>
     <col min="32" max="32" width="37.85546875" customWidth="1"/>
     <col min="33" max="33" width="72.28515625" customWidth="1"/>
@@ -6341,9 +6344,9 @@
     <col min="37" max="37" width="60.85546875" customWidth="1"/>
     <col min="38" max="38" width="72.28515625" customWidth="1"/>
     <col min="39" max="39" width="22.140625" customWidth="1"/>
-    <col min="40" max="40" width="20.85546875" customWidth="1"/>
+    <col min="40" max="40" width="55.42578125" customWidth="1"/>
     <col min="41" max="41" width="26.85546875" customWidth="1"/>
-    <col min="44" max="44" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="22.7109375" style="9" customWidth="1"/>
     <col min="49" max="49" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="44.7109375" bestFit="1" customWidth="1"/>
@@ -6705,7 +6708,7 @@
         <v>92</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE3" s="2" t="s">
         <v>93</v>
@@ -6988,7 +6991,7 @@
         <v>92</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE5" s="2" t="s">
         <v>123</v>
@@ -7295,7 +7298,7 @@
         <v>92</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE7" s="2" t="s">
         <v>93</v>
@@ -7605,7 +7608,7 @@
         <v>92</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE9" s="2" t="s">
         <v>112</v>
@@ -7754,7 +7757,7 @@
         <v>92</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE10" s="2" t="s">
         <v>112</v>
@@ -7897,7 +7900,7 @@
         <v>168</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE11" s="2" t="s">
         <v>93</v>
@@ -8189,7 +8192,7 @@
         <v>92</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE13" s="2" t="s">
         <v>123</v>
@@ -8335,7 +8338,7 @@
         <v>191</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE14" s="2" t="s">
         <v>93</v>
@@ -8481,7 +8484,7 @@
         <v>191</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE15" s="2" t="s">
         <v>112</v>
@@ -8627,7 +8630,7 @@
         <v>191</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE16" s="2" t="s">
         <v>93</v>
@@ -8767,7 +8770,7 @@
         <v>92</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE17" s="2" t="s">
         <v>93</v>
@@ -8907,7 +8910,7 @@
         <v>92</v>
       </c>
       <c r="AD18" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE18" s="2" t="s">
         <v>123</v>
@@ -9047,7 +9050,7 @@
         <v>191</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE19" s="2" t="s">
         <v>93</v>
@@ -9327,7 +9330,7 @@
         <v>92</v>
       </c>
       <c r="AD21" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE21" s="2" t="s">
         <v>93</v>
@@ -9467,7 +9470,7 @@
         <v>92</v>
       </c>
       <c r="AD22" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE22" s="2" t="s">
         <v>93</v>
@@ -9607,7 +9610,7 @@
         <v>92</v>
       </c>
       <c r="AD23" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE23" s="2" t="s">
         <v>93</v>
@@ -9744,7 +9747,7 @@
         <v>92</v>
       </c>
       <c r="AD24" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE24" s="2" t="s">
         <v>112</v>
@@ -9881,7 +9884,7 @@
         <v>92</v>
       </c>
       <c r="AD25" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE25" s="2" t="s">
         <v>93</v>
@@ -10018,7 +10021,7 @@
         <v>92</v>
       </c>
       <c r="AD26" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE26" s="2" t="s">
         <v>93</v>
@@ -10155,7 +10158,7 @@
         <v>92</v>
       </c>
       <c r="AD27" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE27" s="2" t="s">
         <v>112</v>
@@ -10292,7 +10295,7 @@
         <v>92</v>
       </c>
       <c r="AD28" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE28" s="2" t="s">
         <v>93</v>
@@ -10429,7 +10432,7 @@
         <v>92</v>
       </c>
       <c r="AD29" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE29" s="2" t="s">
         <v>93</v>
@@ -10566,7 +10569,7 @@
         <v>92</v>
       </c>
       <c r="AD30" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE30" s="2" t="s">
         <v>93</v>
@@ -10703,7 +10706,7 @@
         <v>92</v>
       </c>
       <c r="AD31" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE31" s="2" t="s">
         <v>93</v>
@@ -10977,7 +10980,7 @@
         <v>92</v>
       </c>
       <c r="AD33" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE33" s="2" t="s">
         <v>93</v>
@@ -11251,7 +11254,7 @@
         <v>92</v>
       </c>
       <c r="AD35" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE35" s="2" t="s">
         <v>93</v>
@@ -11388,7 +11391,7 @@
         <v>92</v>
       </c>
       <c r="AD36" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE36" s="2" t="s">
         <v>112</v>
@@ -11525,7 +11528,7 @@
         <v>92</v>
       </c>
       <c r="AD37" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE37" s="2" t="s">
         <v>93</v>
@@ -11662,7 +11665,7 @@
         <v>92</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE38" s="2" t="s">
         <v>123</v>
@@ -11799,7 +11802,7 @@
         <v>191</v>
       </c>
       <c r="AD39" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE39" s="2" t="s">
         <v>93</v>
@@ -11936,7 +11939,7 @@
         <v>92</v>
       </c>
       <c r="AD40" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE40" s="2" t="s">
         <v>119</v>
@@ -12073,7 +12076,7 @@
         <v>92</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>93</v>
@@ -12210,7 +12213,7 @@
         <v>92</v>
       </c>
       <c r="AD42" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE42" s="2" t="s">
         <v>93</v>
@@ -12347,7 +12350,7 @@
         <v>92</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE43" s="2" t="s">
         <v>132</v>
@@ -12484,7 +12487,7 @@
         <v>191</v>
       </c>
       <c r="AD44" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE44" s="2" t="s">
         <v>123</v>
@@ -12621,7 +12624,7 @@
         <v>92</v>
       </c>
       <c r="AD45" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE45" s="2" t="s">
         <v>93</v>
@@ -12758,7 +12761,7 @@
         <v>92</v>
       </c>
       <c r="AD46" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE46" s="2" t="s">
         <v>93</v>
@@ -12895,7 +12898,7 @@
         <v>92</v>
       </c>
       <c r="AD47" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE47" s="2" t="s">
         <v>93</v>
@@ -13032,7 +13035,7 @@
         <v>191</v>
       </c>
       <c r="AD48" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE48" s="2" t="s">
         <v>93</v>
@@ -13169,7 +13172,7 @@
         <v>92</v>
       </c>
       <c r="AD49" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE49" s="2" t="s">
         <v>112</v>
@@ -13306,7 +13309,7 @@
         <v>191</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE50" s="2" t="s">
         <v>93</v>
@@ -13443,7 +13446,7 @@
         <v>191</v>
       </c>
       <c r="AD51" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE51" s="2" t="s">
         <v>93</v>
@@ -13717,7 +13720,7 @@
         <v>92</v>
       </c>
       <c r="AD53" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE53" s="2" t="s">
         <v>93</v>
@@ -13854,7 +13857,7 @@
         <v>92</v>
       </c>
       <c r="AD54" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE54" s="2" t="s">
         <v>112</v>
@@ -13991,7 +13994,7 @@
         <v>92</v>
       </c>
       <c r="AD55" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE55" s="2" t="s">
         <v>93</v>
@@ -14128,7 +14131,7 @@
         <v>92</v>
       </c>
       <c r="AD56" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE56" s="2" t="s">
         <v>93</v>
@@ -14265,7 +14268,7 @@
         <v>92</v>
       </c>
       <c r="AD57" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE57" s="2" t="s">
         <v>93</v>
@@ -14402,7 +14405,7 @@
         <v>92</v>
       </c>
       <c r="AD58" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE58" s="2" t="s">
         <v>93</v>
@@ -14539,7 +14542,7 @@
         <v>191</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>123</v>
@@ -14676,7 +14679,7 @@
         <v>92</v>
       </c>
       <c r="AD60" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE60" s="2" t="s">
         <v>93</v>
@@ -14813,7 +14816,7 @@
         <v>92</v>
       </c>
       <c r="AD61" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE61" s="2" t="s">
         <v>93</v>
@@ -15087,7 +15090,7 @@
         <v>92</v>
       </c>
       <c r="AD63" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE63" s="2" t="s">
         <v>112</v>
@@ -15361,7 +15364,7 @@
         <v>92</v>
       </c>
       <c r="AD65" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE65" s="2" t="s">
         <v>132</v>
@@ -15498,7 +15501,7 @@
         <v>92</v>
       </c>
       <c r="AD66" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE66" s="2" t="s">
         <v>132</v>
@@ -15772,7 +15775,7 @@
         <v>92</v>
       </c>
       <c r="AD68" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE68" s="2" t="s">
         <v>93</v>
@@ -16183,7 +16186,7 @@
         <v>191</v>
       </c>
       <c r="AD71" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE71" s="2" t="s">
         <v>123</v>
@@ -16320,7 +16323,7 @@
         <v>92</v>
       </c>
       <c r="AD72" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE72" s="2" t="s">
         <v>93</v>
@@ -16457,7 +16460,7 @@
         <v>92</v>
       </c>
       <c r="AD73" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE73" s="2" t="s">
         <v>123</v>
@@ -16594,7 +16597,7 @@
         <v>92</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE74" s="2" t="s">
         <v>93</v>
@@ -16731,7 +16734,7 @@
         <v>92</v>
       </c>
       <c r="AD75" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE75" s="2" t="s">
         <v>93</v>
@@ -16868,7 +16871,7 @@
         <v>92</v>
       </c>
       <c r="AD76" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE76" s="2" t="s">
         <v>112</v>
@@ -17005,7 +17008,7 @@
         <v>92</v>
       </c>
       <c r="AD77" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE77" s="2" t="s">
         <v>112</v>
@@ -17142,7 +17145,7 @@
         <v>92</v>
       </c>
       <c r="AD78" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE78" s="2" t="s">
         <v>93</v>
@@ -17279,7 +17282,7 @@
         <v>191</v>
       </c>
       <c r="AD79" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE79" s="2" t="s">
         <v>123</v>
@@ -17416,7 +17419,7 @@
         <v>92</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE80" s="2" t="s">
         <v>93</v>
@@ -17553,7 +17556,7 @@
         <v>92</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE81" s="2" t="s">
         <v>112</v>
@@ -17690,7 +17693,7 @@
         <v>92</v>
       </c>
       <c r="AD82" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE82" s="2" t="s">
         <v>93</v>
@@ -17827,7 +17830,7 @@
         <v>92</v>
       </c>
       <c r="AD83" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE83" s="2" t="s">
         <v>123</v>
@@ -17964,7 +17967,7 @@
         <v>92</v>
       </c>
       <c r="AD84" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE84" s="2" t="s">
         <v>93</v>
@@ -18101,7 +18104,7 @@
         <v>92</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE85" s="2" t="s">
         <v>93</v>
@@ -18238,7 +18241,7 @@
         <v>92</v>
       </c>
       <c r="AD86" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE86" s="2" t="s">
         <v>93</v>
@@ -18375,7 +18378,7 @@
         <v>92</v>
       </c>
       <c r="AD87" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE87" s="2" t="s">
         <v>93</v>
@@ -18512,7 +18515,7 @@
         <v>92</v>
       </c>
       <c r="AD88" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE88" s="2" t="s">
         <v>80</v>
@@ -18782,7 +18785,7 @@
         <v>92</v>
       </c>
       <c r="AD90" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE90" s="2" t="s">
         <v>93</v>
@@ -19054,7 +19057,7 @@
         <v>191</v>
       </c>
       <c r="AD92" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE92" s="2" t="s">
         <v>93</v>
@@ -19326,7 +19329,7 @@
         <v>92</v>
       </c>
       <c r="AD94" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE94" s="2" t="s">
         <v>93</v>
@@ -19462,7 +19465,7 @@
         <v>92</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE95" s="2" t="s">
         <v>112</v>
@@ -19598,7 +19601,7 @@
         <v>92</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE96" s="2" t="s">
         <v>93</v>
@@ -19734,7 +19737,7 @@
         <v>92</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE97" s="2" t="s">
         <v>123</v>
@@ -19870,7 +19873,7 @@
         <v>92</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE98" s="2" t="s">
         <v>93</v>
@@ -20006,7 +20009,7 @@
         <v>92</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE99" s="2" t="s">
         <v>93</v>
@@ -20142,7 +20145,7 @@
         <v>191</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE100" s="2" t="s">
         <v>93</v>
@@ -20278,7 +20281,7 @@
         <v>92</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE101" s="2" t="s">
         <v>93</v>
@@ -20550,7 +20553,7 @@
         <v>92</v>
       </c>
       <c r="AD103" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE103" s="2" t="s">
         <v>112</v>
@@ -20686,7 +20689,7 @@
         <v>92</v>
       </c>
       <c r="AD104" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE104" s="2" t="s">
         <v>93</v>
@@ -20822,7 +20825,7 @@
         <v>92</v>
       </c>
       <c r="AD105" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE105" s="2" t="s">
         <v>93</v>
@@ -21094,7 +21097,7 @@
         <v>92</v>
       </c>
       <c r="AD107" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE107" s="2" t="s">
         <v>112</v>
@@ -21230,7 +21233,7 @@
         <v>92</v>
       </c>
       <c r="AD108" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE108" s="2" t="s">
         <v>123</v>
@@ -21366,7 +21369,7 @@
         <v>92</v>
       </c>
       <c r="AD109" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE109" s="2" t="s">
         <v>93</v>
@@ -21502,7 +21505,7 @@
         <v>92</v>
       </c>
       <c r="AD110" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE110" s="2" t="s">
         <v>123</v>
@@ -21638,7 +21641,7 @@
         <v>92</v>
       </c>
       <c r="AD111" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE111" s="2" t="s">
         <v>93</v>
@@ -21774,7 +21777,7 @@
         <v>92</v>
       </c>
       <c r="AD112" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE112" s="2" t="s">
         <v>123</v>
@@ -22046,7 +22049,7 @@
         <v>92</v>
       </c>
       <c r="AD114" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE114" s="2" t="s">
         <v>123</v>
@@ -22454,7 +22457,7 @@
         <v>92</v>
       </c>
       <c r="AD117" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE117" s="2" t="s">
         <v>93</v>
@@ -22590,7 +22593,7 @@
         <v>92</v>
       </c>
       <c r="AD118" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE118" s="2" t="s">
         <v>112</v>
@@ -22726,7 +22729,7 @@
         <v>92</v>
       </c>
       <c r="AD119" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE119" s="2" t="s">
         <v>112</v>
@@ -22862,7 +22865,7 @@
         <v>92</v>
       </c>
       <c r="AD120" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE120" s="2" t="s">
         <v>112</v>
@@ -22998,7 +23001,7 @@
         <v>92</v>
       </c>
       <c r="AD121" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE121" s="2" t="s">
         <v>112</v>
@@ -23134,7 +23137,7 @@
         <v>92</v>
       </c>
       <c r="AD122" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE122" s="2" t="s">
         <v>93</v>
@@ -23270,7 +23273,7 @@
         <v>92</v>
       </c>
       <c r="AD123" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE123" s="2" t="s">
         <v>123</v>
@@ -23406,7 +23409,7 @@
         <v>92</v>
       </c>
       <c r="AD124" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE124" s="2" t="s">
         <v>93</v>
@@ -23542,7 +23545,7 @@
         <v>92</v>
       </c>
       <c r="AD125" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE125" s="2" t="s">
         <v>112</v>
@@ -23950,7 +23953,7 @@
         <v>92</v>
       </c>
       <c r="AD128" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE128" s="2" t="s">
         <v>112</v>
@@ -24086,7 +24089,7 @@
         <v>191</v>
       </c>
       <c r="AD129" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE129" s="2" t="s">
         <v>93</v>
@@ -24222,7 +24225,7 @@
         <v>92</v>
       </c>
       <c r="AD130" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE130" s="2" t="s">
         <v>93</v>
@@ -24358,7 +24361,7 @@
         <v>191</v>
       </c>
       <c r="AD131" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE131" s="2" t="s">
         <v>112</v>
@@ -24494,7 +24497,7 @@
         <v>92</v>
       </c>
       <c r="AD132" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE132" s="2" t="s">
         <v>93</v>
@@ -24630,7 +24633,7 @@
         <v>92</v>
       </c>
       <c r="AD133" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE133" s="2" t="s">
         <v>132</v>
@@ -24766,7 +24769,7 @@
         <v>92</v>
       </c>
       <c r="AD134" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE134" s="2" t="s">
         <v>93</v>
@@ -24902,7 +24905,7 @@
         <v>92</v>
       </c>
       <c r="AD135" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE135" s="2" t="s">
         <v>93</v>
@@ -25038,7 +25041,7 @@
         <v>92</v>
       </c>
       <c r="AD136" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE136" s="2" t="s">
         <v>93</v>
@@ -25174,7 +25177,7 @@
         <v>191</v>
       </c>
       <c r="AD137" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE137" s="2" t="s">
         <v>132</v>
@@ -25446,7 +25449,7 @@
         <v>92</v>
       </c>
       <c r="AD139" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE139" s="2" t="s">
         <v>93</v>
@@ -25582,7 +25585,7 @@
         <v>92</v>
       </c>
       <c r="AD140" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE140" s="2" t="s">
         <v>93</v>
@@ -25718,7 +25721,7 @@
         <v>92</v>
       </c>
       <c r="AD141" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE141" s="2" t="s">
         <v>93</v>
@@ -25854,7 +25857,7 @@
         <v>92</v>
       </c>
       <c r="AD142" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE142" s="2" t="s">
         <v>112</v>
@@ -26126,7 +26129,7 @@
         <v>92</v>
       </c>
       <c r="AD144" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE144" s="2" t="s">
         <v>93</v>
@@ -26262,7 +26265,7 @@
         <v>92</v>
       </c>
       <c r="AD145" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE145" s="2" t="s">
         <v>123</v>
@@ -26398,7 +26401,7 @@
         <v>92</v>
       </c>
       <c r="AD146" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE146" s="2" t="s">
         <v>93</v>
@@ -26534,7 +26537,7 @@
         <v>92</v>
       </c>
       <c r="AD147" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE147" s="2" t="s">
         <v>93</v>
@@ -26670,7 +26673,7 @@
         <v>92</v>
       </c>
       <c r="AD148" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE148" s="2" t="s">
         <v>123</v>
@@ -26806,7 +26809,7 @@
         <v>92</v>
       </c>
       <c r="AD149" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE149" s="2" t="s">
         <v>123</v>
@@ -26942,7 +26945,7 @@
         <v>92</v>
       </c>
       <c r="AD150" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE150" s="2" t="s">
         <v>112</v>
@@ -27078,7 +27081,7 @@
         <v>92</v>
       </c>
       <c r="AD151" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE151" s="2" t="s">
         <v>112</v>
@@ -27350,7 +27353,7 @@
         <v>92</v>
       </c>
       <c r="AD153" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE153" s="2" t="s">
         <v>119</v>
@@ -27486,7 +27489,7 @@
         <v>92</v>
       </c>
       <c r="AD154" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE154" s="2" t="s">
         <v>93</v>
@@ -27622,7 +27625,7 @@
         <v>92</v>
       </c>
       <c r="AD155" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE155" s="2" t="s">
         <v>93</v>
@@ -27758,7 +27761,7 @@
         <v>92</v>
       </c>
       <c r="AD156" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE156" s="2" t="s">
         <v>112</v>
@@ -27894,7 +27897,7 @@
         <v>191</v>
       </c>
       <c r="AD157" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE157" s="2" t="s">
         <v>112</v>
@@ -28030,7 +28033,7 @@
         <v>92</v>
       </c>
       <c r="AD158" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE158" s="2" t="s">
         <v>112</v>
@@ -28166,7 +28169,7 @@
         <v>92</v>
       </c>
       <c r="AD159" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE159" s="2" t="s">
         <v>123</v>
@@ -28302,7 +28305,7 @@
         <v>92</v>
       </c>
       <c r="AD160" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE160" s="2" t="s">
         <v>93</v>
@@ -28438,7 +28441,7 @@
         <v>92</v>
       </c>
       <c r="AD161" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE161" s="2" t="s">
         <v>123</v>
@@ -28574,7 +28577,7 @@
         <v>191</v>
       </c>
       <c r="AD162" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE162" s="2" t="s">
         <v>93</v>
@@ -28710,7 +28713,7 @@
         <v>191</v>
       </c>
       <c r="AD163" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE163" s="2" t="s">
         <v>112</v>
@@ -28846,7 +28849,7 @@
         <v>92</v>
       </c>
       <c r="AD164" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE164" s="2" t="s">
         <v>123</v>
@@ -28982,7 +28985,7 @@
         <v>92</v>
       </c>
       <c r="AD165" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE165" s="2" t="s">
         <v>112</v>
@@ -29118,7 +29121,7 @@
         <v>191</v>
       </c>
       <c r="AD166" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE166" s="2" t="s">
         <v>93</v>
@@ -29254,7 +29257,7 @@
         <v>191</v>
       </c>
       <c r="AD167" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE167" s="2" t="s">
         <v>112</v>
@@ -29390,7 +29393,7 @@
         <v>191</v>
       </c>
       <c r="AD168" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE168" s="2" t="s">
         <v>119</v>
@@ -29526,7 +29529,7 @@
         <v>92</v>
       </c>
       <c r="AD169" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE169" s="2" t="s">
         <v>93</v>
@@ -29662,7 +29665,7 @@
         <v>191</v>
       </c>
       <c r="AD170" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE170" s="2" t="s">
         <v>93</v>
@@ -29934,7 +29937,7 @@
         <v>92</v>
       </c>
       <c r="AD172" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE172" s="2" t="s">
         <v>112</v>
@@ -30070,7 +30073,7 @@
         <v>948</v>
       </c>
       <c r="AD173" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE173" s="2" t="s">
         <v>123</v>
@@ -30206,7 +30209,7 @@
         <v>92</v>
       </c>
       <c r="AD174" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE174" s="2" t="s">
         <v>93</v>
@@ -30342,7 +30345,7 @@
         <v>92</v>
       </c>
       <c r="AD175" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE175" s="2" t="s">
         <v>123</v>
@@ -30478,7 +30481,7 @@
         <v>191</v>
       </c>
       <c r="AD176" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE176" s="2" t="s">
         <v>93</v>
@@ -30614,7 +30617,7 @@
         <v>92</v>
       </c>
       <c r="AD177" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE177" s="2" t="s">
         <v>93</v>
@@ -30750,7 +30753,7 @@
         <v>191</v>
       </c>
       <c r="AD178" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE178" s="2" t="s">
         <v>93</v>
@@ -30886,7 +30889,7 @@
         <v>92</v>
       </c>
       <c r="AD179" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE179" s="2" t="s">
         <v>93</v>
@@ -31022,7 +31025,7 @@
         <v>92</v>
       </c>
       <c r="AD180" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE180" s="2" t="s">
         <v>132</v>
@@ -31158,7 +31161,7 @@
         <v>92</v>
       </c>
       <c r="AD181" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE181" s="2" t="s">
         <v>132</v>
@@ -31294,7 +31297,7 @@
         <v>92</v>
       </c>
       <c r="AD182" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE182" s="2" t="s">
         <v>123</v>
@@ -31430,7 +31433,7 @@
         <v>92</v>
       </c>
       <c r="AD183" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE183" s="2" t="s">
         <v>93</v>
@@ -31566,7 +31569,7 @@
         <v>92</v>
       </c>
       <c r="AD184" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE184" s="2" t="s">
         <v>93</v>
@@ -31702,7 +31705,7 @@
         <v>92</v>
       </c>
       <c r="AD185" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE185" s="2" t="s">
         <v>93</v>
@@ -31974,7 +31977,7 @@
         <v>92</v>
       </c>
       <c r="AD187" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE187" s="2" t="s">
         <v>123</v>
@@ -32110,7 +32113,7 @@
         <v>92</v>
       </c>
       <c r="AD188" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE188" s="2" t="s">
         <v>93</v>
@@ -32246,7 +32249,7 @@
         <v>92</v>
       </c>
       <c r="AD189" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE189" s="2" t="s">
         <v>93</v>
@@ -32518,7 +32521,7 @@
         <v>92</v>
       </c>
       <c r="AD191" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE191" s="2" t="s">
         <v>123</v>
@@ -32654,7 +32657,7 @@
         <v>92</v>
       </c>
       <c r="AD192" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE192" s="2" t="s">
         <v>112</v>
@@ -32790,7 +32793,7 @@
         <v>191</v>
       </c>
       <c r="AD193" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE193" s="2" t="s">
         <v>123</v>
@@ -32926,7 +32929,7 @@
         <v>191</v>
       </c>
       <c r="AD194" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE194" s="2" t="s">
         <v>132</v>
@@ -33062,7 +33065,7 @@
         <v>191</v>
       </c>
       <c r="AD195" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE195" s="2" t="s">
         <v>123</v>
@@ -33198,7 +33201,7 @@
         <v>948</v>
       </c>
       <c r="AD196" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE196" s="2" t="s">
         <v>93</v>
@@ -33334,7 +33337,7 @@
         <v>948</v>
       </c>
       <c r="AD197" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE197" s="2" t="s">
         <v>93</v>
@@ -33470,7 +33473,7 @@
         <v>948</v>
       </c>
       <c r="AD198" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE198" s="2" t="s">
         <v>123</v>
@@ -33606,7 +33609,7 @@
         <v>191</v>
       </c>
       <c r="AD199" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE199" s="2" t="s">
         <v>93</v>
@@ -33742,7 +33745,7 @@
         <v>191</v>
       </c>
       <c r="AD200" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE200" s="2" t="s">
         <v>123</v>
@@ -33878,7 +33881,7 @@
         <v>191</v>
       </c>
       <c r="AD201" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE201" s="2" t="s">
         <v>93</v>
@@ -34014,7 +34017,7 @@
         <v>92</v>
       </c>
       <c r="AD202" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE202" s="2" t="s">
         <v>132</v>
@@ -34150,7 +34153,7 @@
         <v>92</v>
       </c>
       <c r="AD203" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE203" s="2" t="s">
         <v>93</v>
@@ -34286,7 +34289,7 @@
         <v>92</v>
       </c>
       <c r="AD204" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE204" s="2" t="s">
         <v>93</v>
@@ -34422,7 +34425,7 @@
         <v>191</v>
       </c>
       <c r="AD205" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE205" s="2" t="s">
         <v>132</v>
@@ -34694,7 +34697,7 @@
         <v>191</v>
       </c>
       <c r="AD207" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE207" s="2" t="s">
         <v>93</v>
@@ -34830,7 +34833,7 @@
         <v>191</v>
       </c>
       <c r="AD208" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE208" s="2" t="s">
         <v>123</v>
@@ -34966,7 +34969,7 @@
         <v>191</v>
       </c>
       <c r="AD209" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE209" s="2" t="s">
         <v>123</v>
@@ -35102,7 +35105,7 @@
         <v>92</v>
       </c>
       <c r="AD210" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE210" s="2" t="s">
         <v>93</v>
@@ -35238,7 +35241,7 @@
         <v>191</v>
       </c>
       <c r="AD211" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE211" s="2" t="s">
         <v>93</v>
@@ -35374,7 +35377,7 @@
         <v>92</v>
       </c>
       <c r="AD212" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE212" s="2" t="s">
         <v>93</v>
@@ -35510,7 +35513,7 @@
         <v>191</v>
       </c>
       <c r="AD213" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE213" s="2" t="s">
         <v>123</v>
@@ -35646,7 +35649,7 @@
         <v>92</v>
       </c>
       <c r="AD214" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE214" s="2" t="s">
         <v>93</v>
@@ -35782,7 +35785,7 @@
         <v>92</v>
       </c>
       <c r="AD215" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE215" s="2" t="s">
         <v>123</v>
@@ -35918,7 +35921,7 @@
         <v>191</v>
       </c>
       <c r="AD216" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE216" s="2" t="s">
         <v>123</v>
@@ -36054,7 +36057,7 @@
         <v>92</v>
       </c>
       <c r="AD217" s="2" t="s">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AE217" s="2" t="s">
         <v>93</v>
@@ -36106,7 +36109,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C217 D1:D217 G1:G217 I1:I217 J1:J217 K1:K217 L1:L217 M1:M217 P1:P217 Q1:Q217 R1:R217 S1:S217 T1:T217 U1:U217 V1:V217 W1:W217 X1:X217 Y1:Y217 Z1:Z217 AA1:AA217 AB1:AB217 AC1:AC217 AD1:AD217 AE1:AE217 AF1:AF217 AG1:AG217 AH1:AH217 AI1:AI217 AJ1:AJ217 AK1:AK217 AL1:AL217 AM1:AM217 AN1:AN217 AO1:AO217" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C217 D1:D217 G1:G217 I1:I217 J1:J217 K1:K217 L1:L217 M1:M217 P1:P217 Q1:Q217 R1:R217 S1:S217 T1:T217 U1:U217 V1:V217 W1:W217 X1:X217 Y1:Y217 Z1:Z217 AA1 AB1:AB217 AC1:AC217 AE1:AE217 AF1:AF217 AG1:AG217 AH1:AH217 AI1:AI217 AJ1:AJ217 AK1:AK217 AL1:AL217 AM1:AM217 AN1:AN217 AO1:AO217 AA3:AA217" numberStoredAsText="1"/>
   </ignoredErrors>
   <tableParts count="3">
     <tablePart r:id="rId2"/>
@@ -39267,12 +39270,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007131483237EAAE4F896F71831FEF4AFA" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f0ccb232ca64a220df19b99557ac48e8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9562ae6a-8aad-4746-b7ef-dfdc51982e47" xmlns:ns4="bab35541-443a-4a89-9c9a-4824892e254a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="19c562c2282debc0358cfbf39a32dc15" ns3:_="" ns4:_="">
     <xsd:import namespace="9562ae6a-8aad-4746-b7ef-dfdc51982e47"/>
@@ -39457,7 +39454,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -39466,24 +39463,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E454E34-EA01-433B-948B-CFDF9FE78080}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="bab35541-443a-4a89-9c9a-4824892e254a"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="9562ae6a-8aad-4746-b7ef-dfdc51982e47"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4519D471-C4EB-4399-9913-4116C853FA0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -39502,10 +39488,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0400CF6F-B248-449C-AABA-C045F31A55BD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E454E34-EA01-433B-948B-CFDF9FE78080}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="bab35541-443a-4a89-9c9a-4824892e254a"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="9562ae6a-8aad-4746-b7ef-dfdc51982e47"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>